--- a/Documents/Hardware Pins.xlsx
+++ b/Documents/Hardware Pins.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B207F-37F2-43E7-8972-8933E1CEC012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB444C5-E3FB-4B58-A4F2-35CD865FCAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Forks Arduino" sheetId="1" r:id="rId1"/>
-    <sheet name="CNC Arduino" sheetId="2" r:id="rId2"/>
-    <sheet name="Main Arduino" sheetId="3" r:id="rId3"/>
-    <sheet name="GRBL1 Arduino" sheetId="4" r:id="rId4"/>
-    <sheet name="GRBL2 Arduino" sheetId="5" r:id="rId5"/>
-    <sheet name="Raspberry Pi" sheetId="6" r:id="rId6"/>
+    <sheet name="Component Code" sheetId="7" r:id="rId1"/>
+    <sheet name="Forks Arduino" sheetId="1" r:id="rId2"/>
+    <sheet name="CNC Arduino" sheetId="2" r:id="rId3"/>
+    <sheet name="Main Arduino" sheetId="3" r:id="rId4"/>
+    <sheet name="GRBL1 Arduino" sheetId="4" r:id="rId5"/>
+    <sheet name="GRBL2 Arduino" sheetId="5" r:id="rId6"/>
+    <sheet name="Raspberry Pi" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="262">
   <si>
     <t>Pin #</t>
   </si>
@@ -252,13 +253,577 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Visual Code</t>
+  </si>
+  <si>
+    <t>Stepper Motor</t>
+  </si>
+  <si>
+    <t>Proximity Sensor</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Limit Switch</t>
+  </si>
+  <si>
+    <t>Fork 1 Stepper Motor Pulse Pin</t>
+  </si>
+  <si>
+    <t>Fork 2 Stepper Motor Pulse Pin</t>
+  </si>
+  <si>
+    <t>Fork 3 Stepper Motor Pulse Pin</t>
+  </si>
+  <si>
+    <t>CNC Gate Stepper Motor Pulse Pin</t>
+  </si>
+  <si>
+    <t>Laptop Connection Serial Communication</t>
+  </si>
+  <si>
+    <t>Laptop Connection</t>
+  </si>
+  <si>
+    <t>RX0</t>
+  </si>
+  <si>
+    <t>TX0</t>
+  </si>
+  <si>
+    <t>PWM OCB</t>
+  </si>
+  <si>
+    <t>TX2</t>
+  </si>
+  <si>
+    <t>RX2</t>
+  </si>
+  <si>
+    <t>Main Arduino</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Between Fork1 and Table</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Between Fork1 and Fork2</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Between Fork2 and Fork3</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Between Fork3 and Table</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Fork1 Down</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Fork2 Down</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Fork3 Down</t>
+  </si>
+  <si>
+    <t>Limit Switch Fork1 Up</t>
+  </si>
+  <si>
+    <t>Limit Switch Fork2 Up</t>
+  </si>
+  <si>
+    <t>Limit Switch Fork3 Up</t>
+  </si>
+  <si>
+    <t>Proximity Sensor CNC Gate Up</t>
+  </si>
+  <si>
+    <t>Proximity Sensor CNC Gate Down</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(3)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(2)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(1)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(0)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(16)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(17)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(18)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(19)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(20)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(21)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(22)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(23)</t>
+  </si>
+  <si>
+    <t>Fork 1 Stepper Motor direction x motion</t>
+  </si>
+  <si>
+    <t>Fork 1 Stepper Motor enable x motion</t>
+  </si>
+  <si>
+    <t>Fork 1 Stepper Motor direction z motion</t>
+  </si>
+  <si>
+    <t>Fork 1 Stepper Motor enable z motion</t>
+  </si>
+  <si>
+    <t>Fork 2 Stepper Motor direction x motion</t>
+  </si>
+  <si>
+    <t>Fork 2 Stepper Motor enable x motion</t>
+  </si>
+  <si>
+    <t>Fork 2 Stepper Motor direction z motion</t>
+  </si>
+  <si>
+    <t>Fork 2 Stepper Motor enable z motion</t>
+  </si>
+  <si>
+    <t>Fork 3 Stepper Motor direction x motion</t>
+  </si>
+  <si>
+    <t>Fork 3 Stepper Motor enable x motion</t>
+  </si>
+  <si>
+    <t>Fork 3 Stepper Motor direction z motion</t>
+  </si>
+  <si>
+    <t>Fork 3 Stepper Motor enable z motion</t>
+  </si>
+  <si>
+    <t>CNC Gate Stepper Motor direction z motion</t>
+  </si>
+  <si>
+    <t>CNC Gate Stepper Motor enable z motion</t>
+  </si>
+  <si>
+    <t>Digital Write</t>
+  </si>
+  <si>
+    <t>INT0</t>
+  </si>
+  <si>
+    <t>Digital Write INT1</t>
+  </si>
+  <si>
+    <t>Emergency Stop</t>
+  </si>
+  <si>
+    <t>Arduino Stop</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Feeder and CNC</t>
+  </si>
+  <si>
+    <t>Proximity Sensor at CNC Exit</t>
+  </si>
+  <si>
+    <t>Digital Read</t>
+  </si>
+  <si>
+    <t>Digital Right led</t>
+  </si>
+  <si>
+    <t>code test pin</t>
+  </si>
+  <si>
+    <t>RX1</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>RX3</t>
+  </si>
+  <si>
+    <t>TX3</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Digital Read INT4</t>
+  </si>
+  <si>
+    <t>Proximity Sensor For Foam Existance</t>
+  </si>
+  <si>
+    <t>GRBL1 Arduino</t>
+  </si>
+  <si>
+    <t>GRBL2 Arduino</t>
+  </si>
+  <si>
+    <t>Lubrication ON OFF</t>
+  </si>
+  <si>
+    <t>Lubriccation Signal</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Between Head 1 and Fixation 1</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Between Head 2 and Fixation 2</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Between Fixation 1 and CNC Frame</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Between Fixation 2 and CNC Frame</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head1 and Head2</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head1 and Frame X direcntion</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head2 and Frame X direcntion</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(4)</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(5)</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Head1 Up</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Head1 Down</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Head2 Up</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Head2 Down</t>
+  </si>
+  <si>
+    <t>Fixation1 Stepper Motor Pulse Pin</t>
+  </si>
+  <si>
+    <t>Fixation2 Stepper Motor Pulse Pin</t>
+  </si>
+  <si>
+    <t>Fixation1 Stepper Motor direction Pin</t>
+  </si>
+  <si>
+    <t>Fixation1 Stepper Motor enable Pin</t>
+  </si>
+  <si>
+    <t>Fixation2 Stepper Motor direction Pin</t>
+  </si>
+  <si>
+    <t>Fixation2 Stepper Motor enable Pin</t>
+  </si>
+  <si>
+    <t>Chiller Signal</t>
+  </si>
+  <si>
+    <t>Dust Collector Signal</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Connected also to GRBL1</t>
+  </si>
+  <si>
+    <t>Connected also to GRBL1 and GRBL2</t>
+  </si>
+  <si>
+    <t>Connected also to GRBL2</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Connected to Other Arduinos</t>
+  </si>
+  <si>
+    <t>Selection of Sensor between Head1 and Frame X direcntion</t>
+  </si>
+  <si>
+    <t>Selection of Sensor between Head2 and Frame X direcntion</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>Head1 Up Stepper Motor direction Pin</t>
+  </si>
+  <si>
+    <t>Head1 Up Stepper Motor enable Pin</t>
+  </si>
+  <si>
+    <t>Head2 Up Stepper Motor direction Pin</t>
+  </si>
+  <si>
+    <t>Head2 Up Stepper Motor enable Pin</t>
+  </si>
+  <si>
+    <t>Selenoid Valve head 1</t>
+  </si>
+  <si>
+    <t>Selenoid Valve head 2</t>
+  </si>
+  <si>
+    <t>notice siganl to start air blowering</t>
+  </si>
+  <si>
+    <t>Head1 Up button</t>
+  </si>
+  <si>
+    <t>Head1 Down button</t>
+  </si>
+  <si>
+    <t>Head1 zero button</t>
+  </si>
+  <si>
+    <t>Head2 Up button</t>
+  </si>
+  <si>
+    <t>Head2 Down button</t>
+  </si>
+  <si>
+    <t>Head2 zero button</t>
+  </si>
+  <si>
+    <t>Fork2 Back Fixation Sensor 1</t>
+  </si>
+  <si>
+    <t>Fork2 Back Fixation Sensor 2</t>
+  </si>
+  <si>
+    <t>Fork2 Back Fixation Sensor 3</t>
+  </si>
+  <si>
+    <t>Fork3 Back Fixation Sensor 1</t>
+  </si>
+  <si>
+    <t>Fork3 Back Fixation Sensor 2</t>
+  </si>
+  <si>
+    <t>Fork3 Back Fixation Sensor 3</t>
+  </si>
+  <si>
+    <t>CNC Gate Fixation Sensor 1</t>
+  </si>
+  <si>
+    <t>CNC Gate Fixation Sensor 2</t>
+  </si>
+  <si>
+    <t>CNC Gate Fixation Sensor 3</t>
+  </si>
+  <si>
+    <t>DigitalRead PCINT(6)</t>
+  </si>
+  <si>
+    <t>DigitalRead INT(4)</t>
+  </si>
+  <si>
+    <t>DigitalRead INT(5)</t>
+  </si>
+  <si>
+    <t>Fixation1 Limit switch Fixation sensor</t>
+  </si>
+  <si>
+    <t>Fixation2 Limit switch Fixation sensor</t>
+  </si>
+  <si>
+    <t>Side Wood Fixation Sensor 1</t>
+  </si>
+  <si>
+    <t>Side Wood Fixation Sensor 2</t>
+  </si>
+  <si>
+    <t>Side Wood Fixation Sensor 3</t>
+  </si>
+  <si>
+    <t>Side Wood Fixation Sensor 4</t>
+  </si>
+  <si>
+    <t>Side Wood Fixation Sensor 5</t>
+  </si>
+  <si>
+    <t>GPIO0</t>
+  </si>
+  <si>
+    <t>GPIO1</t>
+  </si>
+  <si>
+    <t>GPIO2</t>
+  </si>
+  <si>
+    <t>GPIO3</t>
+  </si>
+  <si>
+    <t>GPIO4</t>
+  </si>
+  <si>
+    <t>GPIO5</t>
+  </si>
+  <si>
+    <t>GPIO6</t>
+  </si>
+  <si>
+    <t>GPIO7</t>
+  </si>
+  <si>
+    <t>GPIO8</t>
+  </si>
+  <si>
+    <t>GPIO9</t>
+  </si>
+  <si>
+    <t>GPIO10</t>
+  </si>
+  <si>
+    <t>GPIO11</t>
+  </si>
+  <si>
+    <t>GPIO12</t>
+  </si>
+  <si>
+    <t>GPIO13</t>
+  </si>
+  <si>
+    <t>GPIO14</t>
+  </si>
+  <si>
+    <t>GPIO15</t>
+  </si>
+  <si>
+    <t>GPIO16</t>
+  </si>
+  <si>
+    <t>GPIO17</t>
+  </si>
+  <si>
+    <t>GPIO18</t>
+  </si>
+  <si>
+    <t>GPIO19</t>
+  </si>
+  <si>
+    <t>GPIO20</t>
+  </si>
+  <si>
+    <t>GPIO21</t>
+  </si>
+  <si>
+    <t>GPIO22</t>
+  </si>
+  <si>
+    <t>GPIO23</t>
+  </si>
+  <si>
+    <t>GPIO24</t>
+  </si>
+  <si>
+    <t>GPIO25</t>
+  </si>
+  <si>
+    <t>GPIO26</t>
+  </si>
+  <si>
+    <t>GPIO27</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>SD card</t>
+  </si>
+  <si>
+    <t>Stepper Enable/disable</t>
+  </si>
+  <si>
+    <t>connected to all the stepper driver stepper enable pins</t>
+  </si>
+  <si>
+    <t>limit Z-Axis</t>
+  </si>
+  <si>
+    <t>connect to and gate with the two sensor connected</t>
+  </si>
+  <si>
+    <t>hold the stepper motor position without losing its location</t>
+  </si>
+  <si>
+    <t>do not stop the spindle rotation</t>
+  </si>
+  <si>
+    <t>cycle start</t>
+  </si>
+  <si>
+    <t>resume the cnc motion after (feed hold) stop</t>
+  </si>
+  <si>
+    <t>safety door</t>
+  </si>
+  <si>
+    <t>stop the spindle motion and continue using serial communication signal</t>
+  </si>
+  <si>
+    <t>limit Y-Axis</t>
+  </si>
+  <si>
+    <t>limit X-Axis</t>
+  </si>
+  <si>
+    <t>feed hold</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head1 and Frame Y direcntion sensor1</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head2 and Frame Y direcntion sensor1</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head1 and Frame Y direcntion sensor2</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head2 and Frame Y direcntion sensor2</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +837,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +892,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF169A26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,10 +941,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,12 +953,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="1" xr:uid="{24CDF5C4-17DA-498E-AEAA-D8C9F0756BBF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF169A26"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -322,6 +1022,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B5DC32-317B-6615-9374-0CC2F65BE82B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2047875" y="695325"/>
+          <a:ext cx="7648575" cy="7753350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3495675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F3DB39-F2BB-CDAF-2437-BBE12595433D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1647825" y="695325"/>
+          <a:ext cx="7648575" cy="7753350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,384 +1418,715 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A8CE2E-F83B-4550-A7B1-3AFD609D36A6}">
+  <dimension ref="G7:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="32.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B58" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B59" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="B66" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B67" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="C68" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="C69" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
         <v>71</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -972,769 +2135,802 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9EEC5F-A498-43DB-894E-070CB7E2FA25}">
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B48" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B51" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B54" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B55" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B58" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B59" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="B61" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="B65" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="B66" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B67" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B68" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="B69" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF093F54-1EB9-4C57-8022-84062406898A}">
-  <dimension ref="A1:D71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
+      <c r="B71" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1743,382 +2939,467 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92A33B-E49A-4BC4-A810-A1302D2E7FA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF093F54-1EB9-4C57-8022-84062406898A}">
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2128,22 +3409,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8FDA36-B5A0-47E9-AA33-13DC52FB42D6}">
-  <dimension ref="A1:D71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92A33B-E49A-4BC4-A810-A1302D2E7FA1}">
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="8" max="8" width="57.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2157,369 +3440,996 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8FDA36-B5A0-47E9-AA33-13DC52FB42D6}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100C20B-4AA4-42FC-9CDA-A629749583DC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="8" customWidth="1"/>
+    <col min="2" max="2" width="60.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="40.453125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="26" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Hardware Pins.xlsx
+++ b/Documents/Hardware Pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB444C5-E3FB-4B58-A4F2-35CD865FCAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FE337-128F-4173-967E-B7C349534F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component Code" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="261">
   <si>
     <t>Pin #</t>
   </si>
@@ -804,19 +804,16 @@
     <t>feed hold</t>
   </si>
   <si>
-    <t>Proximity Sensor between Head1 and Frame Y direcntion sensor1</t>
-  </si>
-  <si>
-    <t>Proximity Sensor between Head2 and Frame Y direcntion sensor1</t>
-  </si>
-  <si>
-    <t>Proximity Sensor between Head1 and Frame Y direcntion sensor2</t>
-  </si>
-  <si>
-    <t>Proximity Sensor between Head2 and Frame Y direcntion sensor2</t>
-  </si>
-  <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head1 and Frame Y direcntion sensor</t>
+  </si>
+  <si>
+    <t>Proximity Sensor between Head2 and Frame Y direcntion sensor</t>
+  </si>
+  <si>
+    <t>reset</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1482,8 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1901,6 +1898,12 @@
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="B43" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
@@ -1917,11 +1920,8 @@
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>129</v>
+      <c r="B45" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -2008,6 +2008,9 @@
       <c r="A56" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="B56" s="8" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
@@ -2026,9 +2029,6 @@
       <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
@@ -2126,7 +2126,7 @@
         <v>114</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9EEC5F-A498-43DB-894E-070CB7E2FA25}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2220,16 +2220,34 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -2269,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>157</v>
@@ -2279,12 +2297,6 @@
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
@@ -2411,6 +2423,12 @@
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
@@ -2450,7 +2468,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>136</v>
@@ -2460,12 +2478,6 @@
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
@@ -2479,22 +2491,16 @@
       <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>186</v>
+      <c r="B33" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2623,12 +2629,6 @@
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
@@ -2645,12 +2645,6 @@
       <c r="A46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
@@ -2689,22 +2683,22 @@
       <c r="A50" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>211</v>
+      <c r="B50" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>212</v>
+      <c r="B51" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2755,6 +2749,9 @@
       <c r="A56" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="B56" s="8" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
@@ -2787,6 +2784,12 @@
       <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="B60" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
@@ -2796,7 +2799,7 @@
         <v>259</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>172</v>
@@ -2806,11 +2809,11 @@
       <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>260</v>
+      <c r="B62" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>174</v>
@@ -2839,12 +2842,6 @@
       <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="D65" s="8" t="s">
         <v>172</v>
       </c>
@@ -2853,11 +2850,11 @@
       <c r="A66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>156</v>
+      <c r="B66" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>174</v>
@@ -2909,11 +2906,11 @@
       <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>257</v>
+      <c r="B70" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>172</v>
@@ -2922,12 +2919,6 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>174</v>
@@ -3412,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92A33B-E49A-4BC4-A810-A1302D2E7FA1}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3839,7 +3830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8FDA36-B5A0-47E9-AA33-13DC52FB42D6}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Hardware Pins.xlsx
+++ b/Documents/Hardware Pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\youssry\LAST1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FE337-128F-4173-967E-B7C349534F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136DEEBD-0EA6-47F9-A481-6A24B2A6D990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component Code" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="297">
   <si>
     <t>Pin #</t>
   </si>
@@ -814,13 +814,121 @@
   </si>
   <si>
     <t>reset</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>HeadG1ZUpSensor</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>HeadG1ZDownSensor</t>
+  </si>
+  <si>
+    <t>SidePlateSensor2</t>
+  </si>
+  <si>
+    <t>HeadG2ZDownSensor</t>
+  </si>
+  <si>
+    <t>Added to excel</t>
+  </si>
+  <si>
+    <t>Not included in code</t>
+  </si>
+  <si>
+    <t>FrameFixG1YSensor</t>
+  </si>
+  <si>
+    <t>Name Conflict</t>
+  </si>
+  <si>
+    <t>Not checked</t>
+  </si>
+  <si>
+    <t>FrameFixG2YSensor</t>
+  </si>
+  <si>
+    <t>Full Name??</t>
+  </si>
+  <si>
+    <t>FixationG1LimitSensor</t>
+  </si>
+  <si>
+    <t>FixationG2LimitSensor</t>
+  </si>
+  <si>
+    <t>pushButtonUp1</t>
+  </si>
+  <si>
+    <t>pushButtonDown1</t>
+  </si>
+  <si>
+    <t>pushButtonUp2</t>
+  </si>
+  <si>
+    <t>pushButtonDown2</t>
+  </si>
+  <si>
+    <t>pushButtonZero1</t>
+  </si>
+  <si>
+    <t>pushButtonZero2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SidePlateSensor1 </t>
+  </si>
+  <si>
+    <t>SidePlateSensor3</t>
+  </si>
+  <si>
+    <t>SidePlateSensor4</t>
+  </si>
+  <si>
+    <t>SidePlateSensor5</t>
+  </si>
+  <si>
+    <t>HeadFrameG1YSensor2</t>
+  </si>
+  <si>
+    <t>HeadFrameG2YSensor2</t>
+  </si>
+  <si>
+    <t>HeadFrameG2YSensor1</t>
+  </si>
+  <si>
+    <t>G1G2XSensor</t>
+  </si>
+  <si>
+    <t>FrameG1XSensor</t>
+  </si>
+  <si>
+    <t>G2FrameXSensor</t>
+  </si>
+  <si>
+    <t>FixHeadG1YSensor</t>
+  </si>
+  <si>
+    <t>FixHeadG2YSensor</t>
+  </si>
+  <si>
+    <t>HeadG2ZUpSensor</t>
+  </si>
+  <si>
+    <t>HeadFrameG1YSensor1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,8 +986,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="3DS Fonticon"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,6 +1041,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -942,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -997,6 +1128,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,55 +1571,55 @@
   <dimension ref="G7:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="32.7265625" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G9" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G10" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G11" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G12" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G13" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G14" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G15" s="13" t="s">
         <v>143</v>
       </c>
@@ -1481,21 +1633,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="56.7265625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="15.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1520,7 +1672,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1531,7 +1683,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +1705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1716,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1727,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1586,7 +1738,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1597,7 +1749,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1760,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1771,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1630,7 +1782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1641,7 +1793,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +1815,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -1674,7 +1826,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -1685,7 +1837,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -1696,7 +1848,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1707,7 +1859,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -1718,7 +1870,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
@@ -1743,7 +1895,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
@@ -1765,7 +1917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
@@ -1773,17 +1925,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
@@ -1794,7 +1946,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1802,17 +1954,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
@@ -1823,7 +1975,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
@@ -1831,17 +1983,17 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
@@ -1852,7 +2004,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
@@ -1860,17 +2012,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
@@ -1881,7 +2033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>41</v>
       </c>
@@ -1889,12 +2041,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -1905,7 +2057,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -1916,7 +2068,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
@@ -1924,7 +2076,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>46</v>
       </c>
@@ -1935,7 +2087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>47</v>
       </c>
@@ -1946,7 +2098,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
@@ -1957,7 +2109,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2117,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>52</v>
       </c>
@@ -1986,7 +2138,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>53</v>
       </c>
@@ -1994,17 +2146,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>56</v>
       </c>
@@ -2012,12 +2164,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>58</v>
       </c>
@@ -2025,22 +2177,22 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
@@ -2048,7 +2200,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>63</v>
       </c>
@@ -2059,17 +2211,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>66</v>
       </c>
@@ -2077,7 +2229,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>67</v>
       </c>
@@ -2088,7 +2240,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
@@ -2096,7 +2248,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
@@ -2104,7 +2256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
@@ -2115,7 +2267,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>71</v>
       </c>
@@ -2137,37 +2289,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9EEC5F-A498-43DB-894E-070CB7E2FA25}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="56.7265625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="15.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="9.21875" style="8"/>
+    <col min="8" max="8" width="18.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="8"/>
+    <col min="10" max="10" width="11.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="19" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2176,9 +2339,16 @@
       <c r="C2" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2187,8 +2357,15 @@
       <c r="C3" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H3" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2201,8 +2378,21 @@
       <c r="D4" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2215,9 +2405,15 @@
       <c r="D5" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -2227,8 +2423,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2238,8 +2434,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2249,8 +2445,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2260,8 +2456,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2271,8 +2467,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2282,8 +2478,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2292,13 +2488,19 @@
       <c r="C12" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -2311,9 +2513,15 @@
       <c r="D14" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="E14" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2323,8 +2531,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -2334,8 +2542,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -2345,8 +2553,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2356,8 +2564,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2367,8 +2575,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -2378,8 +2586,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -2389,8 +2597,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -2403,8 +2611,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -2414,13 +2622,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2430,8 +2638,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2441,8 +2649,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2452,8 +2660,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -2463,8 +2671,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2473,27 +2681,33 @@
       <c r="C29" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="E29" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="E30" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2503,8 +2717,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -2517,8 +2731,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -2531,8 +2745,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -2545,8 +2759,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -2559,7 +2773,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
@@ -2569,8 +2783,14 @@
       <c r="C38" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2580,8 +2800,14 @@
       <c r="C39" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
@@ -2591,8 +2817,14 @@
       <c r="C40" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>41</v>
       </c>
@@ -2602,8 +2834,14 @@
       <c r="C41" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>42</v>
       </c>
@@ -2613,8 +2851,14 @@
       <c r="C42" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2624,13 +2868,28 @@
       <c r="C43" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="E43" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
@@ -2640,14 +2899,29 @@
       <c r="C45" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+      <c r="E45" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+      <c r="B46" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -2657,8 +2931,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -2668,8 +2942,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -2679,8 +2953,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -2689,9 +2963,12 @@
       <c r="C50" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+      <c r="E50" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2700,9 +2977,12 @@
       <c r="C51" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+      <c r="E51" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -2712,8 +2992,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -2723,8 +3003,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -2734,8 +3014,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -2745,21 +3025,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -2769,8 +3049,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -2780,8 +3060,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -2791,8 +3071,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
@@ -2804,9 +3084,13 @@
       <c r="D61" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+      <c r="E61" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2818,13 +3102,16 @@
       <c r="D62" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
+      <c r="E62" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
@@ -2837,17 +3124,26 @@
       <c r="D64" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
+      <c r="E64" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
         <v>65</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="E65" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -2859,9 +3155,12 @@
       <c r="D66" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+      <c r="E66" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
@@ -2873,9 +3172,12 @@
       <c r="D67" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
+      <c r="E67" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -2887,8 +3189,11 @@
       <c r="D68" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
@@ -2901,9 +3206,15 @@
       <c r="D69" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
+      <c r="E69" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -2915,16 +3226,23 @@
       <c r="D70" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
+      <c r="E70" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="E71" s="8" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2937,16 +3255,16 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="56.7265625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="15.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +3278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +3289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +3300,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +3311,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3007,52 +3325,52 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3063,7 +3381,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -3074,7 +3392,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -3085,7 +3403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -3096,7 +3414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -3107,7 +3425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -3118,7 +3436,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
@@ -3143,7 +3461,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -3154,242 +3472,242 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>71</v>
       </c>
@@ -3403,21 +3721,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92A33B-E49A-4BC4-A810-A1302D2E7FA1}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="56.7265625" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" customWidth="1"/>
-    <col min="8" max="8" width="57.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3431,42 +3749,42 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3477,7 +3795,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3488,7 +3806,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3814,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -3504,12 +3822,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3520,7 +3838,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -3528,7 +3846,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3539,7 +3857,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -3550,272 +3868,272 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,19 +4148,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8FDA36-B5A0-47E9-AA33-13DC52FB42D6}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="56.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3856,352 +4174,352 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,16 +4538,16 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="8" customWidth="1"/>
-    <col min="2" max="2" width="60.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="40.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="60.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="26" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="8"/>
+    <col min="5" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4243,47 +4561,47 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>221</v>
       </c>
@@ -4294,7 +4612,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>222</v>
       </c>
@@ -4305,7 +4623,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>223</v>
       </c>
@@ -4316,7 +4634,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>224</v>
       </c>
@@ -4327,17 +4645,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>227</v>
       </c>
@@ -4348,7 +4666,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>228</v>
       </c>
@@ -4359,62 +4677,62 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>240</v>
       </c>
